--- a/results/model_metrics.xlsx
+++ b/results/model_metrics.xlsx
@@ -7,20 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Classifier Report" sheetId="1" r:id="rId1"/>
-    <sheet name="RNN Report" sheetId="2" r:id="rId2"/>
-    <sheet name="LSTM Report" sheetId="3" r:id="rId3"/>
-    <sheet name="CNN Report" sheetId="4" r:id="rId4"/>
-    <sheet name="GNN Report" sheetId="5" r:id="rId5"/>
-    <sheet name="KNN Report" sheetId="6" r:id="rId6"/>
-    <sheet name="SVM Report" sheetId="7" r:id="rId7"/>
+    <sheet name="CatBoost Report" sheetId="1" r:id="rId1"/>
+    <sheet name="XGBoost Report" sheetId="2" r:id="rId2"/>
+    <sheet name="LightGBM Report" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>precision</t>
   </si>
@@ -429,16 +425,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.9985514244326412</v>
+        <v>0.9984301412872841</v>
       </c>
       <c r="C2">
-        <v>0.9990338164251208</v>
+        <v>0.9994761655316919</v>
       </c>
       <c r="D2">
-        <v>0.9987925621830476</v>
+        <v>0.9989528795811519</v>
       </c>
       <c r="E2">
-        <v>2070</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -449,13 +445,13 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="D3">
-        <v>0.4444444444444445</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,16 +459,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.9975903614457832</v>
+        <v>0.9979090433873498</v>
       </c>
       <c r="C4">
-        <v>0.9975903614457832</v>
+        <v>0.9979090433873498</v>
       </c>
       <c r="D4">
-        <v>0.9975903614457832</v>
+        <v>0.9979090433873498</v>
       </c>
       <c r="E4">
-        <v>0.9975903614457832</v>
+        <v>0.9979090433873498</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,16 +476,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.7492757122163206</v>
+        <v>0.749215070643642</v>
       </c>
       <c r="C5">
-        <v>0.6995169082125604</v>
+        <v>0.624738082765846</v>
       </c>
       <c r="D5">
-        <v>0.721618503313746</v>
+        <v>0.6661431064572426</v>
       </c>
       <c r="E5">
-        <v>2075</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,16 +493,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.9973500956990686</v>
+        <v>0.9973879454874153</v>
       </c>
       <c r="C6">
-        <v>0.9975903614457832</v>
+        <v>0.9979090433873498</v>
       </c>
       <c r="D6">
-        <v>0.9974567835860871</v>
+        <v>0.9975610979894156</v>
       </c>
       <c r="E6">
-        <v>2075</v>
+        <v>1913</v>
       </c>
     </row>
   </sheetData>
@@ -541,16 +537,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.9975903614457832</v>
+        <v>0.9984301412872841</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.9994761655316919</v>
       </c>
       <c r="D2">
-        <v>0.9987937273823884</v>
+        <v>0.9989528795811519</v>
       </c>
       <c r="E2">
-        <v>2070</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -558,16 +554,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -575,16 +571,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.9975903614457832</v>
+        <v>0.9979090433873498</v>
       </c>
       <c r="C4">
-        <v>0.9975903614457832</v>
+        <v>0.9979090433873498</v>
       </c>
       <c r="D4">
-        <v>0.9975903614457832</v>
+        <v>0.9979090433873498</v>
       </c>
       <c r="E4">
-        <v>0.9975903614457832</v>
+        <v>0.9979090433873498</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -592,16 +588,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.4987951807228916</v>
+        <v>0.749215070643642</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.624738082765846</v>
       </c>
       <c r="D5">
-        <v>0.4993968636911942</v>
+        <v>0.6661431064572426</v>
       </c>
       <c r="E5">
-        <v>2075</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -609,16 +605,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.9951865292495282</v>
+        <v>0.9973879454874153</v>
       </c>
       <c r="C6">
-        <v>0.9975903614457832</v>
+        <v>0.9979090433873498</v>
       </c>
       <c r="D6">
-        <v>0.9963869955091778</v>
+        <v>0.9975610979894156</v>
       </c>
       <c r="E6">
-        <v>2075</v>
+        <v>1913</v>
       </c>
     </row>
   </sheetData>
@@ -653,16 +649,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.9975903614457832</v>
+        <v>0.9984218832193582</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.9942378208486118</v>
       </c>
       <c r="D2">
-        <v>0.9987937273823884</v>
+        <v>0.9963254593175854</v>
       </c>
       <c r="E2">
-        <v>2070</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -670,16 +666,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -687,16 +683,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.9975903614457832</v>
+        <v>0.992681651855724</v>
       </c>
       <c r="C4">
-        <v>0.9975903614457832</v>
+        <v>0.992681651855724</v>
       </c>
       <c r="D4">
-        <v>0.9975903614457832</v>
+        <v>0.992681651855724</v>
       </c>
       <c r="E4">
-        <v>0.9975903614457832</v>
+        <v>0.992681651855724</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -704,16 +700,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.4987951807228916</v>
+        <v>0.5408776082763458</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.6221189104243059</v>
       </c>
       <c r="D5">
-        <v>0.4993968636911942</v>
+        <v>0.5606627296587927</v>
       </c>
       <c r="E5">
-        <v>2075</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -721,464 +717,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.9951865292495282</v>
+        <v>0.9965084727648135</v>
       </c>
       <c r="C6">
-        <v>0.9975903614457832</v>
+        <v>0.992681651855724</v>
       </c>
       <c r="D6">
-        <v>0.9963869955091778</v>
+        <v>0.9945035555866547</v>
       </c>
       <c r="E6">
-        <v>2075</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0.9975903614457832</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.9987937273823884</v>
-      </c>
-      <c r="E2">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.9975903614457832</v>
-      </c>
-      <c r="C4">
-        <v>0.9975903614457832</v>
-      </c>
-      <c r="D4">
-        <v>0.9975903614457832</v>
-      </c>
-      <c r="E4">
-        <v>0.9975903614457832</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.4987951807228916</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
-        <v>0.4993968636911942</v>
-      </c>
-      <c r="E5">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.9951865292495282</v>
-      </c>
-      <c r="C6">
-        <v>0.9975903614457832</v>
-      </c>
-      <c r="D6">
-        <v>0.9963869955091778</v>
-      </c>
-      <c r="E6">
-        <v>2075</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0.9975903614457832</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.9987937273823884</v>
-      </c>
-      <c r="E2">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.9975903614457832</v>
-      </c>
-      <c r="C4">
-        <v>0.9975903614457832</v>
-      </c>
-      <c r="D4">
-        <v>0.9975903614457832</v>
-      </c>
-      <c r="E4">
-        <v>0.9975903614457832</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.4987951807228916</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
-        <v>0.4993968636911942</v>
-      </c>
-      <c r="E5">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.9951865292495282</v>
-      </c>
-      <c r="C6">
-        <v>0.9975903614457832</v>
-      </c>
-      <c r="D6">
-        <v>0.9963869955091778</v>
-      </c>
-      <c r="E6">
-        <v>2075</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0.9975903614457832</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.9987937273823884</v>
-      </c>
-      <c r="E2">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.9975903614457832</v>
-      </c>
-      <c r="C4">
-        <v>0.9975903614457832</v>
-      </c>
-      <c r="D4">
-        <v>0.9975903614457832</v>
-      </c>
-      <c r="E4">
-        <v>0.9975903614457832</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.4987951807228916</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
-        <v>0.4993968636911942</v>
-      </c>
-      <c r="E5">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.9951865292495282</v>
-      </c>
-      <c r="C6">
-        <v>0.9975903614457832</v>
-      </c>
-      <c r="D6">
-        <v>0.9963869955091778</v>
-      </c>
-      <c r="E6">
-        <v>2075</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0.9985500241662639</v>
-      </c>
-      <c r="C2">
-        <v>0.9980676328502416</v>
-      </c>
-      <c r="D2">
-        <v>0.9983087702343562</v>
-      </c>
-      <c r="E2">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C3">
-        <v>0.4</v>
-      </c>
-      <c r="D3">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.9966265060240964</v>
-      </c>
-      <c r="C4">
-        <v>0.9966265060240964</v>
-      </c>
-      <c r="D4">
-        <v>0.9966265060240964</v>
-      </c>
-      <c r="E4">
-        <v>0.9966265060240964</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.6659416787497986</v>
-      </c>
-      <c r="C5">
-        <v>0.6990338164251209</v>
-      </c>
-      <c r="D5">
-        <v>0.6809725669353599</v>
-      </c>
-      <c r="E5">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.9969470923811243</v>
-      </c>
-      <c r="C6">
-        <v>0.9966265060240964</v>
-      </c>
-      <c r="D6">
-        <v>0.9967794391341201</v>
-      </c>
-      <c r="E6">
-        <v>2075</v>
+        <v>1913</v>
       </c>
     </row>
   </sheetData>

--- a/results/model_metrics.xlsx
+++ b/results/model_metrics.xlsx
@@ -7,16 +7,22 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="CatBoost Report" sheetId="1" r:id="rId1"/>
-    <sheet name="XGBoost Report" sheetId="2" r:id="rId2"/>
-    <sheet name="LightGBM Report" sheetId="3" r:id="rId3"/>
+    <sheet name="Classifier Report" sheetId="1" r:id="rId1"/>
+    <sheet name="CNN Report" sheetId="2" r:id="rId2"/>
+    <sheet name="GNN Report" sheetId="3" r:id="rId3"/>
+    <sheet name="KNN Report" sheetId="4" r:id="rId4"/>
+    <sheet name="SVM Report" sheetId="5" r:id="rId5"/>
+    <sheet name="ANN Report" sheetId="6" r:id="rId6"/>
+    <sheet name="CatBoost Report" sheetId="7" r:id="rId7"/>
+    <sheet name="XGBoost Report" sheetId="8" r:id="rId8"/>
+    <sheet name="LightGBM Report" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="9">
   <si>
     <t>precision</t>
   </si>
@@ -425,13 +431,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.9984301412872841</v>
+        <v>0.9984309623430963</v>
       </c>
       <c r="C2">
-        <v>0.9994761655316919</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.9989528795811519</v>
+        <v>0.9992148652185292</v>
       </c>
       <c r="E2">
         <v>1909</v>
@@ -442,13 +448,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0.25</v>
       </c>
       <c r="D3">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -459,16 +465,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.9979090433873498</v>
+        <v>0.9984317825405122</v>
       </c>
       <c r="C4">
-        <v>0.9979090433873498</v>
+        <v>0.9984317825405122</v>
       </c>
       <c r="D4">
-        <v>0.9979090433873498</v>
+        <v>0.9984317825405122</v>
       </c>
       <c r="E4">
-        <v>0.9979090433873498</v>
+        <v>0.9984317825405122</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -476,13 +482,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.749215070643642</v>
+        <v>0.9992154811715481</v>
       </c>
       <c r="C5">
-        <v>0.624738082765846</v>
+        <v>0.625</v>
       </c>
       <c r="D5">
-        <v>0.6661431064572426</v>
+        <v>0.6996074326092646</v>
       </c>
       <c r="E5">
         <v>1913</v>
@@ -493,13 +499,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.9973879454874153</v>
+        <v>0.9984342431327604</v>
       </c>
       <c r="C6">
-        <v>0.9979090433873498</v>
+        <v>0.9984317825405122</v>
       </c>
       <c r="D6">
-        <v>0.9975610979894156</v>
+        <v>0.9979619329337022</v>
       </c>
       <c r="E6">
         <v>1913</v>
@@ -537,13 +543,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.9984301412872841</v>
+        <v>0.9979090433873498</v>
       </c>
       <c r="C2">
-        <v>0.9994761655316919</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.9989528795811519</v>
+        <v>0.9989534275248562</v>
       </c>
       <c r="E2">
         <v>1909</v>
@@ -554,13 +560,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -588,13 +594,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.749215070643642</v>
+        <v>0.4989545216936749</v>
       </c>
       <c r="C5">
-        <v>0.624738082765846</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>0.6661431064572426</v>
+        <v>0.4994767137624281</v>
       </c>
       <c r="E5">
         <v>1913</v>
@@ -605,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.9973879454874153</v>
+        <v>0.9958224588742555</v>
       </c>
       <c r="C6">
         <v>0.9979090433873498</v>
       </c>
       <c r="D6">
-        <v>0.9975610979894156</v>
+        <v>0.9968646592498434</v>
       </c>
       <c r="E6">
         <v>1913</v>
@@ -649,13 +655,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.9984218832193582</v>
+        <v>0.9979090433873498</v>
       </c>
       <c r="C2">
-        <v>0.9942378208486118</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.9963254593175854</v>
+        <v>0.9989534275248562</v>
       </c>
       <c r="E2">
         <v>1909</v>
@@ -666,13 +672,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -683,16 +689,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.992681651855724</v>
+        <v>0.9979090433873498</v>
       </c>
       <c r="C4">
-        <v>0.992681651855724</v>
+        <v>0.9979090433873498</v>
       </c>
       <c r="D4">
-        <v>0.992681651855724</v>
+        <v>0.9979090433873498</v>
       </c>
       <c r="E4">
-        <v>0.992681651855724</v>
+        <v>0.9979090433873498</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -700,13 +706,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.5408776082763458</v>
+        <v>0.4989545216936749</v>
       </c>
       <c r="C5">
-        <v>0.6221189104243059</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>0.5606627296587927</v>
+        <v>0.4994767137624281</v>
       </c>
       <c r="E5">
         <v>1913</v>
@@ -717,13 +723,685 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.9965084727648135</v>
+        <v>0.9958224588742555</v>
       </c>
       <c r="C6">
-        <v>0.992681651855724</v>
+        <v>0.9979090433873498</v>
       </c>
       <c r="D6">
-        <v>0.9945035555866547</v>
+        <v>0.9968646592498434</v>
+      </c>
+      <c r="E6">
+        <v>1913</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.997907949790795</v>
+      </c>
+      <c r="C2">
+        <v>0.9994761655316919</v>
+      </c>
+      <c r="D2">
+        <v>0.998691442030882</v>
+      </c>
+      <c r="E2">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.9973863042341872</v>
+      </c>
+      <c r="C4">
+        <v>0.9973863042341872</v>
+      </c>
+      <c r="D4">
+        <v>0.9973863042341872</v>
+      </c>
+      <c r="E4">
+        <v>0.9973863042341872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.4989539748953975</v>
+      </c>
+      <c r="C5">
+        <v>0.499738082765846</v>
+      </c>
+      <c r="D5">
+        <v>0.499345721015441</v>
+      </c>
+      <c r="E5">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.9958213675643637</v>
+      </c>
+      <c r="C6">
+        <v>0.9973863042341872</v>
+      </c>
+      <c r="D6">
+        <v>0.9966032215561702</v>
+      </c>
+      <c r="E6">
+        <v>1913</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.9979090433873498</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.9989534275248562</v>
+      </c>
+      <c r="E2">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.9979090433873498</v>
+      </c>
+      <c r="C4">
+        <v>0.9979090433873498</v>
+      </c>
+      <c r="D4">
+        <v>0.9979090433873498</v>
+      </c>
+      <c r="E4">
+        <v>0.9979090433873498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.4989545216936749</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.4994767137624281</v>
+      </c>
+      <c r="E5">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.9958224588742555</v>
+      </c>
+      <c r="C6">
+        <v>0.9979090433873498</v>
+      </c>
+      <c r="D6">
+        <v>0.9968646592498434</v>
+      </c>
+      <c r="E6">
+        <v>1913</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.9979090433873498</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.9989534275248562</v>
+      </c>
+      <c r="E2">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.9979090433873498</v>
+      </c>
+      <c r="C4">
+        <v>0.9979090433873498</v>
+      </c>
+      <c r="D4">
+        <v>0.9979090433873498</v>
+      </c>
+      <c r="E4">
+        <v>0.9979090433873498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.4989545216936749</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.4994767137624281</v>
+      </c>
+      <c r="E5">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.9958224588742555</v>
+      </c>
+      <c r="C6">
+        <v>0.9979090433873498</v>
+      </c>
+      <c r="D6">
+        <v>0.9968646592498434</v>
+      </c>
+      <c r="E6">
+        <v>1913</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.9984301412872841</v>
+      </c>
+      <c r="C2">
+        <v>0.9994761655316919</v>
+      </c>
+      <c r="D2">
+        <v>0.9989528795811519</v>
+      </c>
+      <c r="E2">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.25</v>
+      </c>
+      <c r="D3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.9979090433873498</v>
+      </c>
+      <c r="C4">
+        <v>0.9979090433873498</v>
+      </c>
+      <c r="D4">
+        <v>0.9979090433873498</v>
+      </c>
+      <c r="E4">
+        <v>0.9979090433873498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.749215070643642</v>
+      </c>
+      <c r="C5">
+        <v>0.624738082765846</v>
+      </c>
+      <c r="D5">
+        <v>0.6661431064572426</v>
+      </c>
+      <c r="E5">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.9973879454874153</v>
+      </c>
+      <c r="C6">
+        <v>0.9979090433873498</v>
+      </c>
+      <c r="D6">
+        <v>0.9975610979894156</v>
+      </c>
+      <c r="E6">
+        <v>1913</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.9984301412872841</v>
+      </c>
+      <c r="C2">
+        <v>0.9994761655316919</v>
+      </c>
+      <c r="D2">
+        <v>0.9989528795811519</v>
+      </c>
+      <c r="E2">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.25</v>
+      </c>
+      <c r="D3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.9979090433873498</v>
+      </c>
+      <c r="C4">
+        <v>0.9979090433873498</v>
+      </c>
+      <c r="D4">
+        <v>0.9979090433873498</v>
+      </c>
+      <c r="E4">
+        <v>0.9979090433873498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.749215070643642</v>
+      </c>
+      <c r="C5">
+        <v>0.624738082765846</v>
+      </c>
+      <c r="D5">
+        <v>0.6661431064572426</v>
+      </c>
+      <c r="E5">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.9973879454874153</v>
+      </c>
+      <c r="C6">
+        <v>0.9979090433873498</v>
+      </c>
+      <c r="D6">
+        <v>0.9975610979894156</v>
+      </c>
+      <c r="E6">
+        <v>1913</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.9989517819706499</v>
+      </c>
+      <c r="C2">
+        <v>0.9984284965950759</v>
+      </c>
+      <c r="D2">
+        <v>0.9986900707361802</v>
+      </c>
+      <c r="E2">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.4</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>0.4444444444444445</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.9973863042341872</v>
+      </c>
+      <c r="C4">
+        <v>0.9973863042341872</v>
+      </c>
+      <c r="D4">
+        <v>0.9973863042341872</v>
+      </c>
+      <c r="E4">
+        <v>0.9973863042341872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.6994758909853249</v>
+      </c>
+      <c r="C5">
+        <v>0.7492142482975379</v>
+      </c>
+      <c r="D5">
+        <v>0.7215672575903124</v>
+      </c>
+      <c r="E5">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.9976993997814796</v>
+      </c>
+      <c r="C6">
+        <v>0.9973863042341872</v>
+      </c>
+      <c r="D6">
+        <v>0.9975311671788529</v>
       </c>
       <c r="E6">
         <v>1913</v>
